--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.92629313300089</v>
+        <v>10.13474866666667</v>
       </c>
       <c r="H2">
-        <v>8.92629313300089</v>
+        <v>30.404246</v>
       </c>
       <c r="I2">
-        <v>0.08962716526600008</v>
+        <v>0.09605827562377289</v>
       </c>
       <c r="J2">
-        <v>0.08962716526600008</v>
+        <v>0.09605827562377291</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.430087074409711</v>
+        <v>0.4955973333333333</v>
       </c>
       <c r="N2">
-        <v>0.430087074409711</v>
+        <v>1.486792</v>
       </c>
       <c r="O2">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728271</v>
       </c>
       <c r="P2">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728272</v>
       </c>
       <c r="Q2">
-        <v>3.839083298895846</v>
+        <v>5.022754413203555</v>
       </c>
       <c r="R2">
-        <v>3.839083298895846</v>
+        <v>45.204789718832</v>
       </c>
       <c r="S2">
-        <v>0.005034310253994131</v>
+        <v>0.00516221422698109</v>
       </c>
       <c r="T2">
-        <v>0.005034310253994131</v>
+        <v>0.005162214226981092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.92629313300089</v>
+        <v>10.13474866666667</v>
       </c>
       <c r="H3">
-        <v>8.92629313300089</v>
+        <v>30.404246</v>
       </c>
       <c r="I3">
-        <v>0.08962716526600008</v>
+        <v>0.09605827562377289</v>
       </c>
       <c r="J3">
-        <v>0.08962716526600008</v>
+        <v>0.09605827562377291</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.10993548074224</v>
+        <v>4.129416666666667</v>
       </c>
       <c r="N3">
-        <v>4.10993548074224</v>
+        <v>12.38825</v>
       </c>
       <c r="O3">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="P3">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="Q3">
-        <v>36.68648885882617</v>
+        <v>41.85060005661111</v>
       </c>
       <c r="R3">
-        <v>36.68648885882617</v>
+        <v>376.6554005095</v>
       </c>
       <c r="S3">
-        <v>0.04810814266472124</v>
+        <v>0.04301260727620172</v>
       </c>
       <c r="T3">
-        <v>0.04810814266472124</v>
+        <v>0.04301260727620172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.92629313300089</v>
+        <v>10.13474866666667</v>
       </c>
       <c r="H4">
-        <v>8.92629313300089</v>
+        <v>30.404246</v>
       </c>
       <c r="I4">
-        <v>0.08962716526600008</v>
+        <v>0.09605827562377289</v>
       </c>
       <c r="J4">
-        <v>0.08962716526600008</v>
+        <v>0.09605827562377291</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.11693209246969</v>
+        <v>4.597041333333333</v>
       </c>
       <c r="N4">
-        <v>3.11693209246969</v>
+        <v>13.791124</v>
       </c>
       <c r="O4">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="P4">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="Q4">
-        <v>27.82264953304229</v>
+        <v>46.58985852361155</v>
       </c>
       <c r="R4">
-        <v>27.82264953304229</v>
+        <v>419.308726712504</v>
       </c>
       <c r="S4">
-        <v>0.03648471234728471</v>
+        <v>0.04788345412059009</v>
       </c>
       <c r="T4">
-        <v>0.03648471234728471</v>
+        <v>0.0478834541205901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.77212155305055</v>
+        <v>8.977051666666666</v>
       </c>
       <c r="H5">
-        <v>8.77212155305055</v>
+        <v>26.931155</v>
       </c>
       <c r="I5">
-        <v>0.08807915855485547</v>
+        <v>0.08508549463310319</v>
       </c>
       <c r="J5">
-        <v>0.08807915855485547</v>
+        <v>0.08508549463310322</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.430087074409711</v>
+        <v>0.4955973333333333</v>
       </c>
       <c r="N5">
-        <v>0.430087074409711</v>
+        <v>1.486792</v>
       </c>
       <c r="O5">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728271</v>
       </c>
       <c r="P5">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728272</v>
       </c>
       <c r="Q5">
-        <v>3.772776095117881</v>
+        <v>4.449002867195555</v>
       </c>
       <c r="R5">
-        <v>3.772776095117881</v>
+        <v>40.04102580476</v>
       </c>
       <c r="S5">
-        <v>0.004947359539486558</v>
+        <v>0.004572532122323734</v>
       </c>
       <c r="T5">
-        <v>0.004947359539486558</v>
+        <v>0.004572532122323737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.77212155305055</v>
+        <v>8.977051666666666</v>
       </c>
       <c r="H6">
-        <v>8.77212155305055</v>
+        <v>26.931155</v>
       </c>
       <c r="I6">
-        <v>0.08807915855485547</v>
+        <v>0.08508549463310319</v>
       </c>
       <c r="J6">
-        <v>0.08807915855485547</v>
+        <v>0.08508549463310322</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.10993548074224</v>
+        <v>4.129416666666667</v>
       </c>
       <c r="N6">
-        <v>4.10993548074224</v>
+        <v>12.38825</v>
       </c>
       <c r="O6">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="P6">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="Q6">
-        <v>36.05285361226618</v>
+        <v>37.06998676986111</v>
       </c>
       <c r="R6">
-        <v>36.05285361226618</v>
+        <v>333.62988092875</v>
       </c>
       <c r="S6">
-        <v>0.04727723690657672</v>
+        <v>0.03809925737048424</v>
       </c>
       <c r="T6">
-        <v>0.04727723690657672</v>
+        <v>0.03809925737048426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.77212155305055</v>
+        <v>8.977051666666666</v>
       </c>
       <c r="H7">
-        <v>8.77212155305055</v>
+        <v>26.931155</v>
       </c>
       <c r="I7">
-        <v>0.08807915855485547</v>
+        <v>0.08508549463310319</v>
       </c>
       <c r="J7">
-        <v>0.08807915855485547</v>
+        <v>0.08508549463310322</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.11693209246969</v>
+        <v>4.597041333333333</v>
       </c>
       <c r="N7">
-        <v>3.11693209246969</v>
+        <v>13.791124</v>
       </c>
       <c r="O7">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="P7">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="Q7">
-        <v>27.34210718774832</v>
+        <v>41.26787756313556</v>
       </c>
       <c r="R7">
-        <v>27.34210718774832</v>
+        <v>371.41089806822</v>
       </c>
       <c r="S7">
-        <v>0.0358545621087922</v>
+        <v>0.04241370514029521</v>
       </c>
       <c r="T7">
-        <v>0.0358545621087922</v>
+        <v>0.04241370514029523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6453863276965</v>
+        <v>16.21867033333333</v>
       </c>
       <c r="H8">
-        <v>13.6453863276965</v>
+        <v>48.656011</v>
       </c>
       <c r="I8">
-        <v>0.1370106579840403</v>
+        <v>0.1537223621789972</v>
       </c>
       <c r="J8">
-        <v>0.1370106579840403</v>
+        <v>0.1537223621789972</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.430087074409711</v>
+        <v>0.4955973333333333</v>
       </c>
       <c r="N8">
-        <v>0.430087074409711</v>
+        <v>1.486792</v>
       </c>
       <c r="O8">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728271</v>
       </c>
       <c r="P8">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728272</v>
       </c>
       <c r="Q8">
-        <v>5.868704284869257</v>
+        <v>8.037929767412443</v>
       </c>
       <c r="R8">
-        <v>5.868704284869257</v>
+        <v>72.34136790671199</v>
       </c>
       <c r="S8">
-        <v>0.00769581586507226</v>
+        <v>0.008261107748317403</v>
       </c>
       <c r="T8">
-        <v>0.00769581586507226</v>
+        <v>0.008261107748317406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6453863276965</v>
+        <v>16.21867033333333</v>
       </c>
       <c r="H9">
-        <v>13.6453863276965</v>
+        <v>48.656011</v>
       </c>
       <c r="I9">
-        <v>0.1370106579840403</v>
+        <v>0.1537223621789972</v>
       </c>
       <c r="J9">
-        <v>0.1370106579840403</v>
+        <v>0.1537223621789972</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.10993548074224</v>
+        <v>4.129416666666667</v>
       </c>
       <c r="N9">
-        <v>4.10993548074224</v>
+        <v>12.38825</v>
       </c>
       <c r="O9">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="P9">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="Q9">
-        <v>56.0816574166349</v>
+        <v>66.97364758563889</v>
       </c>
       <c r="R9">
-        <v>56.0816574166349</v>
+        <v>602.76282827075</v>
       </c>
       <c r="S9">
-        <v>0.07354163507594441</v>
+        <v>0.06883321141295695</v>
       </c>
       <c r="T9">
-        <v>0.07354163507594441</v>
+        <v>0.06883321141295697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6453863276965</v>
+        <v>16.21867033333333</v>
       </c>
       <c r="H10">
-        <v>13.6453863276965</v>
+        <v>48.656011</v>
       </c>
       <c r="I10">
-        <v>0.1370106579840403</v>
+        <v>0.1537223621789972</v>
       </c>
       <c r="J10">
-        <v>0.1370106579840403</v>
+        <v>0.1537223621789972</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.11693209246969</v>
+        <v>4.597041333333333</v>
       </c>
       <c r="N10">
-        <v>3.11693209246969</v>
+        <v>13.791124</v>
       </c>
       <c r="O10">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="P10">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="Q10">
-        <v>42.53174255894435</v>
+        <v>74.55789789404044</v>
       </c>
       <c r="R10">
-        <v>42.53174255894435</v>
+        <v>671.021081046364</v>
       </c>
       <c r="S10">
-        <v>0.05577320704302361</v>
+        <v>0.0766280430177228</v>
       </c>
       <c r="T10">
-        <v>0.05577320704302361</v>
+        <v>0.07662804301772282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.9141038439899</v>
+        <v>18.97137133333333</v>
       </c>
       <c r="H11">
-        <v>18.9141038439899</v>
+        <v>56.914114</v>
       </c>
       <c r="I11">
-        <v>0.1899128211257457</v>
+        <v>0.1798127685684043</v>
       </c>
       <c r="J11">
-        <v>0.1899128211257457</v>
+        <v>0.1798127685684043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.430087074409711</v>
+        <v>0.4955973333333333</v>
       </c>
       <c r="N11">
-        <v>0.430087074409711</v>
+        <v>1.486792</v>
       </c>
       <c r="O11">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728271</v>
       </c>
       <c r="P11">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728272</v>
       </c>
       <c r="Q11">
-        <v>8.134711587343086</v>
+        <v>9.402161042476443</v>
       </c>
       <c r="R11">
-        <v>8.134711587343086</v>
+        <v>84.619449382288</v>
       </c>
       <c r="S11">
-        <v>0.01066730226177288</v>
+        <v>0.00966321772974813</v>
       </c>
       <c r="T11">
-        <v>0.01066730226177288</v>
+        <v>0.009663217729748133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.9141038439899</v>
+        <v>18.97137133333333</v>
       </c>
       <c r="H12">
-        <v>18.9141038439899</v>
+        <v>56.914114</v>
       </c>
       <c r="I12">
-        <v>0.1899128211257457</v>
+        <v>0.1798127685684043</v>
       </c>
       <c r="J12">
-        <v>0.1899128211257457</v>
+        <v>0.1798127685684043</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.10993548074224</v>
+        <v>4.129416666666667</v>
       </c>
       <c r="N12">
-        <v>4.10993548074224</v>
+        <v>12.38825</v>
       </c>
       <c r="O12">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="P12">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="Q12">
-        <v>77.73574647485728</v>
+        <v>78.34069697338889</v>
       </c>
       <c r="R12">
-        <v>77.73574647485728</v>
+        <v>705.0662727604999</v>
       </c>
       <c r="S12">
-        <v>0.1019373207382128</v>
+        <v>0.08051587380114521</v>
       </c>
       <c r="T12">
-        <v>0.1019373207382128</v>
+        <v>0.08051587380114522</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.9141038439899</v>
+        <v>18.97137133333333</v>
       </c>
       <c r="H13">
-        <v>18.9141038439899</v>
+        <v>56.914114</v>
       </c>
       <c r="I13">
-        <v>0.1899128211257457</v>
+        <v>0.1798127685684043</v>
       </c>
       <c r="J13">
-        <v>0.1899128211257457</v>
+        <v>0.1798127685684043</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.11693209246969</v>
+        <v>4.597041333333333</v>
       </c>
       <c r="N13">
-        <v>3.11693209246969</v>
+        <v>13.791124</v>
       </c>
       <c r="O13">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="P13">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="Q13">
-        <v>58.95397727163644</v>
+        <v>87.21217816934845</v>
       </c>
       <c r="R13">
-        <v>58.95397727163644</v>
+        <v>784.9096035241359</v>
       </c>
       <c r="S13">
-        <v>0.07730819812575998</v>
+        <v>0.08963367703751093</v>
       </c>
       <c r="T13">
-        <v>0.07730819812575998</v>
+        <v>0.08963367703751096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.759911133978</v>
+        <v>40.62112166666667</v>
       </c>
       <c r="H14">
-        <v>39.759911133978</v>
+        <v>121.863365</v>
       </c>
       <c r="I14">
-        <v>0.3992214991228395</v>
+        <v>0.3850115113399109</v>
       </c>
       <c r="J14">
-        <v>0.3992214991228395</v>
+        <v>0.3850115113399109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.430087074409711</v>
+        <v>0.4955973333333333</v>
       </c>
       <c r="N14">
-        <v>0.430087074409711</v>
+        <v>1.486792</v>
       </c>
       <c r="O14">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728271</v>
       </c>
       <c r="P14">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728272</v>
       </c>
       <c r="Q14">
-        <v>17.10022385840269</v>
+        <v>20.13171957500889</v>
       </c>
       <c r="R14">
-        <v>17.10022385840269</v>
+        <v>181.18547617508</v>
       </c>
       <c r="S14">
-        <v>0.02242405949897242</v>
+        <v>0.02069068894360312</v>
       </c>
       <c r="T14">
-        <v>0.02242405949897242</v>
+        <v>0.02069068894360313</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.759911133978</v>
+        <v>40.62112166666667</v>
       </c>
       <c r="H15">
-        <v>39.759911133978</v>
+        <v>121.863365</v>
       </c>
       <c r="I15">
-        <v>0.3992214991228395</v>
+        <v>0.3850115113399109</v>
       </c>
       <c r="J15">
-        <v>0.3992214991228395</v>
+        <v>0.3850115113399109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.10993548074224</v>
+        <v>4.129416666666667</v>
       </c>
       <c r="N15">
-        <v>4.10993548074224</v>
+        <v>12.38825</v>
       </c>
       <c r="O15">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="P15">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="Q15">
-        <v>163.4106694806946</v>
+        <v>167.7415368290278</v>
       </c>
       <c r="R15">
-        <v>163.4106694806946</v>
+        <v>1509.67383146125</v>
       </c>
       <c r="S15">
-        <v>0.2142855324903502</v>
+        <v>0.1723989820402527</v>
       </c>
       <c r="T15">
-        <v>0.2142855324903502</v>
+        <v>0.1723989820402528</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.759911133978</v>
+        <v>40.62112166666667</v>
       </c>
       <c r="H16">
-        <v>39.759911133978</v>
+        <v>121.863365</v>
       </c>
       <c r="I16">
-        <v>0.3992214991228395</v>
+        <v>0.3850115113399109</v>
       </c>
       <c r="J16">
-        <v>0.3992214991228395</v>
+        <v>0.3850115113399109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.11693209246969</v>
+        <v>4.597041333333333</v>
       </c>
       <c r="N16">
-        <v>3.11693209246969</v>
+        <v>13.791124</v>
       </c>
       <c r="O16">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="P16">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="Q16">
-        <v>123.928943007239</v>
+        <v>186.7369753080289</v>
       </c>
       <c r="R16">
-        <v>123.928943007239</v>
+        <v>1680.63277777226</v>
       </c>
       <c r="S16">
-        <v>0.1625119071335169</v>
+        <v>0.191921840356055</v>
       </c>
       <c r="T16">
-        <v>0.1625119071335169</v>
+        <v>0.1919218403560551</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.57579612921848</v>
+        <v>10.58328866666667</v>
       </c>
       <c r="H17">
-        <v>9.57579612921848</v>
+        <v>31.749866</v>
       </c>
       <c r="I17">
-        <v>0.09614869794651892</v>
+        <v>0.1003095876558115</v>
       </c>
       <c r="J17">
-        <v>0.09614869794651892</v>
+        <v>0.1003095876558115</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.430087074409711</v>
+        <v>0.4955973333333333</v>
       </c>
       <c r="N17">
-        <v>0.430087074409711</v>
+        <v>1.486792</v>
       </c>
       <c r="O17">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728271</v>
       </c>
       <c r="P17">
-        <v>0.05616946869906069</v>
+        <v>0.05374044238728272</v>
       </c>
       <c r="Q17">
-        <v>4.118426142359411</v>
+        <v>5.245049641096889</v>
       </c>
       <c r="R17">
-        <v>4.118426142359411</v>
+        <v>47.205446769872</v>
       </c>
       <c r="S17">
-        <v>0.005400621279762436</v>
+        <v>0.005390681616309223</v>
       </c>
       <c r="T17">
-        <v>0.005400621279762436</v>
+        <v>0.005390681616309225</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.57579612921848</v>
+        <v>10.58328866666667</v>
       </c>
       <c r="H18">
-        <v>9.57579612921848</v>
+        <v>31.749866</v>
       </c>
       <c r="I18">
-        <v>0.09614869794651892</v>
+        <v>0.1003095876558115</v>
       </c>
       <c r="J18">
-        <v>0.09614869794651892</v>
+        <v>0.1003095876558115</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.10993548074224</v>
+        <v>4.129416666666667</v>
       </c>
       <c r="N18">
-        <v>4.10993548074224</v>
+        <v>12.38825</v>
       </c>
       <c r="O18">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="P18">
-        <v>0.5367584986308943</v>
+        <v>0.4477761754194636</v>
       </c>
       <c r="Q18">
-        <v>39.35590426782923</v>
+        <v>43.70280860827778</v>
       </c>
       <c r="R18">
-        <v>39.35590426782923</v>
+        <v>393.3252774745</v>
       </c>
       <c r="S18">
-        <v>0.05160863075508885</v>
+        <v>0.04491624351842271</v>
       </c>
       <c r="T18">
-        <v>0.05160863075508885</v>
+        <v>0.04491624351842272</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.57579612921848</v>
+        <v>10.58328866666667</v>
       </c>
       <c r="H19">
-        <v>9.57579612921848</v>
+        <v>31.749866</v>
       </c>
       <c r="I19">
-        <v>0.09614869794651892</v>
+        <v>0.1003095876558115</v>
       </c>
       <c r="J19">
-        <v>0.09614869794651892</v>
+        <v>0.1003095876558115</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.11693209246969</v>
+        <v>4.597041333333333</v>
       </c>
       <c r="N19">
-        <v>3.11693209246969</v>
+        <v>13.791124</v>
       </c>
       <c r="O19">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="P19">
-        <v>0.407072032670045</v>
+        <v>0.4984833821932537</v>
       </c>
       <c r="Q19">
-        <v>29.84710626610811</v>
+        <v>48.65181544326489</v>
       </c>
       <c r="R19">
-        <v>29.84710626610811</v>
+        <v>437.8663389893841</v>
       </c>
       <c r="S19">
-        <v>0.03913944591166765</v>
+        <v>0.05000266252107956</v>
       </c>
       <c r="T19">
-        <v>0.03913944591166765</v>
+        <v>0.05000266252107958</v>
       </c>
     </row>
   </sheetData>
